--- a/焦炭/data_input/焦炭港口价格.xlsx
+++ b/焦炭/data_input/焦炭港口价格.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4040"/>
+  <dimension ref="A1:D4042"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47192,10 +47192,10 @@
         <v>45953</v>
       </c>
       <c r="B4039" t="n">
-        <v>-218.2707</v>
+        <v>-270.1504</v>
       </c>
       <c r="C4039" t="n">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="D4039" t="n">
         <v>1490</v>
@@ -47206,11 +47206,41 @@
         <v>45954</v>
       </c>
       <c r="B4040" t="n">
-        <v>-218.2707</v>
-      </c>
-      <c r="C4040" t="inlineStr"/>
+        <v>-270.1504</v>
+      </c>
+      <c r="C4040" t="n">
+        <v>1600</v>
+      </c>
       <c r="D4040" t="n">
         <v>1490</v>
+      </c>
+    </row>
+    <row r="4041">
+      <c r="A4041" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B4041" t="n">
+        <v>-230.1504</v>
+      </c>
+      <c r="C4041" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D4041" t="n">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="4042">
+      <c r="A4042" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B4042" t="n">
+        <v>-230.1504</v>
+      </c>
+      <c r="C4042" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D4042" t="n">
+        <v>1530</v>
       </c>
     </row>
   </sheetData>
